--- a/data/trans_orig/P14C19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C19-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E0B398-8058-47CB-9360-50E8AE1B4A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC369673-7D9D-435B-966D-332E8259A59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7464A16E-6B79-4886-B6ED-45B64B1BADBA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{907663CE-D048-4C06-BE5B-4A8E4388E370}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
   <si>
     <t>Población según el tiempo de diagnóstico del varices en las piernas en 2015 (Tasa respuesta: 3,43%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>74,42%</t>
   </si>
   <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +107,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,59%</t>
+    <t>36,14%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>3,74%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>14,65%</t>
@@ -122,10 +122,10 @@
     <t>8,38%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,25 +134,25 @@
     <t>13,65%</t>
   </si>
   <si>
-    <t>43,33%</t>
+    <t>40,83%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>79,37%</t>
   </si>
   <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>83,93%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>0%</t>
@@ -233,7 +233,7 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>25,05%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -242,19 +242,19 @@
     <t>68,82%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -263,115 +263,118 @@
     <t>19,54%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>74,95%</t>
+    <t>82,0%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>43,76%</t>
+    <t>51,14%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>43,22%</t>
+    <t>35,4%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C5DBA2-884A-40DD-B382-BED4F7ECD666}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF3F38D-0E5F-442F-845E-256ADF7E7D3B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1663,10 +1666,10 @@
         <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1725,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C19-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC369673-7D9D-435B-966D-332E8259A59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{000782A4-F420-4910-8684-C9E011861B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{907663CE-D048-4C06-BE5B-4A8E4388E370}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E570EEAD-261A-46AA-8BC3-EBD2AF2D168B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
-  <si>
-    <t>Población según el tiempo de diagnóstico del varices en las piernas en 2015 (Tasa respuesta: 3,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+  <si>
+    <t>Población según el tiempo de diagnóstico del varices en las piernas en 2016 (Tasa respuesta: 3,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>74,42%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>36,14%</t>
+    <t>37,2%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,7 +134,7 @@
     <t>13,65%</t>
   </si>
   <si>
-    <t>40,83%</t>
+    <t>44,49%</t>
   </si>
   <si>
     <t>3,3%</t>
@@ -143,16 +143,16 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>9,13%</t>
+    <t>8,53%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>79,37%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>83,93%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>0%</t>
@@ -242,19 +242,16 @@
     <t>68,82%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>47,58%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -263,19 +260,19 @@
     <t>19,54%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>18,1%</t>
@@ -287,76 +284,76 @@
     <t>11,64%</t>
   </si>
   <si>
-    <t>51,14%</t>
+    <t>52,32%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>35,4%</t>
+    <t>40,78%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -365,16 +362,16 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF3F38D-0E5F-442F-845E-256ADF7E7D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8006D0AA-D5DD-4EE6-A202-9F5D46695256}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1361,7 +1358,7 @@
         <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1382,7 +1379,7 @@
         <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1391,13 +1388,13 @@
         <v>3053</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1406,13 +1403,13 @@
         <v>3053</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,13 +1424,13 @@
         <v>1143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1442,13 +1439,13 @@
         <v>1819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1457,13 +1454,13 @@
         <v>2962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,13 +1528,13 @@
         <v>37539</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
@@ -1546,13 +1543,13 @@
         <v>178778</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -1561,13 +1558,13 @@
         <v>216316</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,13 +1579,13 @@
         <v>7185</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -1597,13 +1594,13 @@
         <v>25033</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -1612,13 +1609,13 @@
         <v>32218</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,13 +1630,13 @@
         <v>3403</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1648,13 +1645,13 @@
         <v>5483</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1663,13 +1660,13 @@
         <v>8886</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1722,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
